--- a/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
+++ b/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -514,7 +514,13 @@
     <t>087</t>
   </si>
   <si>
+    <t>纺惑</t>
+  </si>
+  <si>
     <t>088</t>
+  </si>
+  <si>
+    <t>青形</t>
   </si>
   <si>
     <t>089</t>
@@ -1456,20 +1462,26 @@
       <c r="A88" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="B88" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
+++ b/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
@@ -346,7 +346,7 @@
     <t>058</t>
   </si>
   <si>
-    <t>サタデー</t>
+    <t>サタデイ</t>
   </si>
   <si>
     <t>059</t>

--- a/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
+++ b/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>ID</t>
   </si>
@@ -526,7 +526,25 @@
     <t>089</t>
   </si>
   <si>
+    <t>曙光</t>
+  </si>
+  <si>
     <t>090</t>
+  </si>
+  <si>
+    <t>亚音</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>冈底斯</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1496,34 @@
       <c r="A90" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
+++ b/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -538,7 +538,13 @@
     <t>091</t>
   </si>
   <si>
+    <t>凡尔纳</t>
+  </si>
+  <si>
     <t>092</t>
+  </si>
+  <si>
+    <t>伊底</t>
   </si>
   <si>
     <t>093</t>
@@ -1512,18 +1518,24 @@
       <c r="A92" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="B92" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
+++ b/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
@@ -457,7 +457,7 @@
     <t>077</t>
   </si>
   <si>
-    <t>アレフ</t>
+    <t>アルフ</t>
   </si>
   <si>
     <t>078</t>

--- a/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
+++ b/gamewiki/FellowMoon/新月同行キャラ一覧.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -551,13 +551,37 @@
   </si>
   <si>
     <t>冈底斯</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>灰鹰</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>黑卒</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -569,13 +593,24 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF202122"/>
+      <name val="Sans-serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -584,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -592,6 +627,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1538,6 +1576,42 @@
         <v>179</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
